--- a/AI Projects/emails.xlsx
+++ b/AI Projects/emails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\python-ai-projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\python-learnings\AI Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB54C36-22E1-45FB-882C-3A89671513B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C68CD1-7B81-4CE1-A0CF-661990163296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,24 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Email</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Subject</t>
   </si>
   <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>siddharthchobhe@gmail.com</t>
-  </si>
-  <si>
-    <t>Test_Sub</t>
-  </si>
-  <si>
     <t>Hi Test1, this is a test email.</t>
+  </si>
+  <si>
+    <t>tejasmane485@gmail.com</t>
+  </si>
+  <si>
+    <t>Test_Bulk Email automation_Sub</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>mylearningss10@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -104,14 +110,12 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -394,45 +398,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.84375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5F4FCCD3-0F2C-46E8-9965-C52ACFE0AC70}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{222C41C9-BCBF-4787-B7AF-76F401278BAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/AI Projects/emails.xlsx
+++ b/AI Projects/emails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\python-learnings\AI Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C68CD1-7B81-4CE1-A0CF-661990163296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA25239A-7D63-4724-950A-69F21F3DAE66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Subject</t>
   </si>
   <si>
     <t>Hi Test1, this is a test email.</t>
-  </si>
-  <si>
-    <t>tejasmane485@gmail.com</t>
   </si>
   <si>
     <t>Test_Bulk Email automation_Sub</t>
@@ -401,51 +398,48 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="1" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{222C41C9-BCBF-4787-B7AF-76F401278BAB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>